--- a/Excel/角度計算(アッカーマン).xlsx
+++ b/Excel/角度計算(アッカーマン).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natsuki\OneDrive\Documents\MCR\WorkSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1336" documentId="C4501209EDFA520192A05134F92D3C0BB6115215" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{83A9D66D-DB5F-48EC-BF77-A8D2D7F06AF5}"/>
+  <xr:revisionPtr revIDLastSave="1336" documentId="C4501209EDFA520192A05134F92D3C0BB6115215" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{83A9D66D-DB5F-48EC-BF77-A8D2D7F06AF5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12740" windowHeight="3840" activeTab="1" xr2:uid="{62133153-F14F-4752-8305-8B3FD8B391B6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12740" windowHeight="3840" xr2:uid="{62133153-F14F-4752-8305-8B3FD8B391B6}"/>
   </bookViews>
   <sheets>
     <sheet name="角度計算(アッカーマン)" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'コピーして貼り付け用(アッカーマン)'!$C$1:$E$502</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'コピーして貼り付け用(旋回半径)'!$J$1:$J$499</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -732,9 +733,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:Y507"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE499" sqref="AE499"/>
+      <selection pane="bottomLeft" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -999,7 +1000,7 @@
         <v>-70.035835587048368</v>
       </c>
       <c r="W7">
-        <f t="shared" ref="W7:W70" si="6">S7*($Y$2/S7)</f>
+        <f t="shared" ref="W7" si="6">S7*($Y$2/S7)</f>
         <v>100</v>
       </c>
       <c r="X7">
@@ -43570,7 +43571,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43579,7 +43580,7 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:H522"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
